--- a/life/2019.xlsx
+++ b/life/2019.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oak/cloud/life/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="22200" windowHeight="17000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="账目" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Base</t>
   </si>
@@ -68,19 +82,70 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>卖车</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>卢信用卡10月</t>
+  </si>
+  <si>
+    <t>卢信用卡11月</t>
+  </si>
+  <si>
+    <t>卢信用卡12月</t>
+  </si>
+  <si>
+    <t>卢信用卡2月</t>
+  </si>
+  <si>
+    <t>换新加坡元泰铢</t>
+  </si>
+  <si>
+    <t>年终奖</t>
+  </si>
+  <si>
+    <t>保诚保险</t>
+  </si>
+  <si>
+    <t>北京房租</t>
+  </si>
+  <si>
+    <t>小房子租金截止6月</t>
+  </si>
+  <si>
+    <t>自己3月信用卡</t>
+  </si>
+  <si>
+    <t>苗苗英语课</t>
+  </si>
+  <si>
+    <t>2020年曲江6号租金</t>
+  </si>
+  <si>
+    <t>2020上半年交通厅租金</t>
+  </si>
+  <si>
+    <t>约23000</t>
+  </si>
+  <si>
+    <t>约30000</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,351 +154,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
+      <sz val="9.8000000000000007"/>
       <color rgb="FF000000"/>
       <name val="Monaco"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -441,313 +176,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1009,53 +458,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.5"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="13.6875" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="14.4453125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="10.5"/>
-    <col min="15" max="16" width="9.5"/>
-    <col min="18" max="18" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>75000</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3430</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>B6</f>
         <v>75000</v>
@@ -1093,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15.2" spans="3:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +575,7 @@
         <v>67833</v>
       </c>
     </row>
-    <row r="13" ht="15.2" spans="3:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +612,7 @@
         <v>65313</v>
       </c>
     </row>
-    <row r="14" ht="15.2" spans="3:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +649,7 @@
         <v>60942</v>
       </c>
     </row>
-    <row r="15" ht="15.2" spans="3:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +686,7 @@
         <v>59056</v>
       </c>
     </row>
-    <row r="16" ht="15.2" spans="3:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +723,7 @@
         <v>58413.5</v>
       </c>
     </row>
-    <row r="17" ht="15.2" spans="3:15">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +760,7 @@
         <v>55927.5</v>
       </c>
     </row>
-    <row r="18" ht="15.2" spans="3:15">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +797,7 @@
         <v>55028</v>
       </c>
     </row>
-    <row r="19" ht="15.2" spans="3:15">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +834,7 @@
         <v>52799</v>
       </c>
     </row>
-    <row r="20" ht="15.2" spans="3:15">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1426,7 +871,7 @@
         <v>52799</v>
       </c>
     </row>
-    <row r="21" ht="15.2" spans="3:15">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +908,7 @@
         <v>52799</v>
       </c>
     </row>
-    <row r="22" ht="15.2" spans="3:15">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +945,7 @@
         <v>51385.5</v>
       </c>
     </row>
-    <row r="23" ht="15.2" spans="3:15">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +982,7 @@
         <v>49670.5</v>
       </c>
     </row>
-    <row r="24" spans="15:16">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="O24">
         <f>SUM(O12:O23)</f>
         <v>681966</v>
@@ -1548,7 +993,149 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35000</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(C3:C78)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>